--- a/Files/Madden24/IE/Test/AllPros.xlsx
+++ b/Files/Madden24/IE/Test/AllPros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC59E306-8B3E-49FD-8D0E-AD92BC68B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{CC59E306-8B3E-49FD-8D0E-AD92BC68B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34498025-EB0E-46BC-996C-96D162BC17C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32071668-F964-4AA4-856E-0B3249DE7FD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,12 +44,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>AllPro</t>
-  </si>
-  <si>
-    <t>AllConf</t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -246,6 +240,66 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>1st Team</t>
+  </si>
+  <si>
+    <t>2nd Team</t>
+  </si>
+  <si>
+    <t>Pos</t>
   </si>
 </sst>
 </file>
@@ -597,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3F44B5-DE0A-4046-8F22-502AF2F1D8EE}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +663,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,395 +671,547 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Madden24/IE/Test/AllPros.xlsx
+++ b/Files/Madden24/IE/Test/AllPros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{CC59E306-8B3E-49FD-8D0E-AD92BC68B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00934720-58D1-44F9-A182-6216A079233B}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{CC59E306-8B3E-49FD-8D0E-AD92BC68B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65ABC7A8-AC5C-4354-AF12-CDE53A359CE7}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32071668-F964-4AA4-856E-0B3249DE7FD3}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32071668-F964-4AA4-856E-0B3249DE7FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,97 +44,385 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>EDGE</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>1st Team</t>
+  </si>
+  <si>
+    <t>2nd Team</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>A.J.</t>
+  </si>
+  <si>
+    <t>CeeDee</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Kelce</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Tyron</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>Maxx</t>
+  </si>
+  <si>
+    <t>Crosby</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>LOLB</t>
+  </si>
+  <si>
+    <t>Foyesade</t>
+  </si>
+  <si>
+    <t>Oluokun</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Younghoe</t>
+  </si>
+  <si>
+    <t>Koo</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t>Patrick</t>
   </si>
   <si>
-    <t>Josh</t>
+    <t>Mahomes</t>
+  </si>
+  <si>
+    <t>Tua</t>
+  </si>
+  <si>
+    <t>Tagovailoa</t>
+  </si>
+  <si>
+    <t>Mixon</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Amon-Ra</t>
+  </si>
+  <si>
+    <t>St. Brown</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Jaylen</t>
+  </si>
+  <si>
+    <t>Waddle</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>Rashee</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Christensen</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>Humphrey</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Teller</t>
+  </si>
+  <si>
+    <t>Terence</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Huff</t>
+  </si>
+  <si>
+    <t>Rashan</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Quinnen</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>Jer'Zhan</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Jaylan</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Jabril</t>
   </si>
   <si>
     <t>Nick</t>
   </si>
   <si>
-    <t>Mahomes</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>QB</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>EDGE</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>Ret</t>
-  </si>
-  <si>
-    <t>1st Team</t>
-  </si>
-  <si>
-    <t>2nd Team</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Breece</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Chubb</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>HB</t>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Kool-Aid</t>
+  </si>
+  <si>
+    <t>McKinstry</t>
+  </si>
+  <si>
+    <t>Trevon</t>
+  </si>
+  <si>
+    <t>Diggs</t>
+  </si>
+  <si>
+    <t>Surtain II</t>
+  </si>
+  <si>
+    <t>Terrell Jr</t>
+  </si>
+  <si>
+    <t>Minkah</t>
+  </si>
+  <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Amani</t>
+  </si>
+  <si>
+    <t>Hooker</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Ka'imi</t>
+  </si>
+  <si>
+    <t>Fairbairn</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>Pressley</t>
+  </si>
+  <si>
+    <t>Harvin III</t>
+  </si>
+  <si>
+    <t>Kendall</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Callaway</t>
   </si>
 </sst>
 </file>
@@ -189,14 +477,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3F44B5-DE0A-4046-8F22-502AF2F1D8EE}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +786,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -511,36 +795,36 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -551,19 +835,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -574,19 +858,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -597,19 +881,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -619,8 +903,20 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -630,8 +926,20 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -641,8 +949,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -652,8 +972,20 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -663,8 +995,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -674,8 +1018,20 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -685,8 +1041,20 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -696,8 +1064,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -707,8 +1087,20 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -718,8 +1110,20 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -729,8 +1133,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -739,7 +1155,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
       <c r="G17">
         <f>SUM(G2:G16)</f>
         <v>25</v>
@@ -747,6 +1175,482 @@
       <c r="H17">
         <f>SUM(H2:H16)</f>
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
